--- a/demo/client.xlsx
+++ b/demo/client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42960" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="3900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +80,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -103,13 +121,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,19 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -484,8 +507,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -499,6 +525,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
